--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2564.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2564.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.041513896644791</v>
+        <v>1.433526277542114</v>
       </c>
       <c r="B1">
-        <v>1.63456584261767</v>
+        <v>1.222121238708496</v>
       </c>
       <c r="C1">
-        <v>3.583048740816937</v>
+        <v>5.245344638824463</v>
       </c>
       <c r="D1">
-        <v>2.01763880579712</v>
+        <v>3.587836027145386</v>
       </c>
       <c r="E1">
-        <v>0.7400044664107671</v>
+        <v>0.6805036067962646</v>
       </c>
     </row>
   </sheetData>
